--- a/DMSNewVSale_2025-12-20_19-17.xlsx
+++ b/DMSNewVSale_2025-12-20_19-17.xlsx
@@ -242,6 +242,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>COLD CONTROL 20 TAB</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -399,12 +408,6 @@
   </si>
   <si>
     <t>FLEXPRO EXTRA 20 F.C.TAB</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>16.0000</t>
   </si>
   <si>
     <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
@@ -2081,7 +2084,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2091,14 +2094,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2107,14 +2110,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2124,14 +2127,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2140,14 +2143,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2164,7 +2167,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2180,7 +2183,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2213,7 +2216,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2223,11 +2226,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>15</v>
@@ -2239,14 +2242,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2263,7 +2266,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2279,7 +2282,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2312,7 +2315,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2329,7 +2332,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>104</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2338,14 +2341,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2355,14 +2358,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>107</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>15</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2378,7 +2381,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2388,14 +2391,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2411,7 +2414,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2421,14 +2424,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2444,7 +2447,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2494,7 +2497,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2510,7 +2513,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2527,7 +2530,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2543,7 +2546,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2557,7 +2560,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>11</v>
@@ -2569,14 +2572,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2590,10 +2593,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2602,14 +2605,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2642,7 +2645,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2652,11 +2655,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>15</v>
@@ -2668,14 +2671,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2685,11 +2688,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>15</v>
@@ -2701,14 +2704,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2718,14 +2721,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2734,7 +2737,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2751,11 +2754,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>11</v>
@@ -2767,14 +2770,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2784,11 +2787,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>11</v>
@@ -2800,31 +2803,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2833,31 +2836,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2866,31 +2869,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>157</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2899,28 +2902,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>15</v>
@@ -2932,7 +2935,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2945,15 +2948,15 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>15</v>
@@ -2965,28 +2968,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>93</v>
+        <v>163</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>15</v>
@@ -2998,14 +3001,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3015,14 +3018,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3038,7 +3041,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3048,14 +3051,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3064,14 +3067,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3081,11 +3084,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>11</v>
@@ -3104,7 +3107,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3114,11 +3117,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>11</v>
@@ -3130,14 +3133,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3147,14 +3150,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>178</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3163,14 +3166,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3180,14 +3183,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>15</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3196,14 +3199,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3213,14 +3216,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3229,14 +3232,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3246,11 +3249,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>11</v>
@@ -3262,14 +3265,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3279,11 +3282,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>11</v>
@@ -3295,14 +3298,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3312,14 +3315,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3328,14 +3331,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3345,14 +3348,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>52</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3361,14 +3364,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3378,14 +3381,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3401,7 +3404,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>197</v>
+        <v>32</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3411,14 +3414,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>198</v>
+        <v>68</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>199</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3427,14 +3430,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3444,14 +3447,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>107</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3467,7 +3470,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>202</v>
+        <v>28</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3477,14 +3480,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>204</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3493,31 +3496,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>203</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3526,28 +3529,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>15</v>
@@ -3559,31 +3562,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3592,14 +3595,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3609,11 +3612,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>11</v>
@@ -3625,14 +3628,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3642,11 +3645,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>11</v>
@@ -3658,14 +3661,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3675,11 +3678,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>84</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>11</v>
@@ -3698,7 +3701,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3708,14 +3711,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>223</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3724,14 +3727,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>56</v>
+        <v>223</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3741,11 +3744,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>225</v>
+        <v>21</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>15</v>
@@ -3757,14 +3760,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3774,14 +3777,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3790,14 +3793,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>231</v>
+        <v>36</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3807,14 +3810,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>72</v>
+        <v>229</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>26</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3823,14 +3826,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3840,14 +3843,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>234</v>
+        <v>72</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>235</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>172</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3856,14 +3859,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>15</v>
+        <v>234</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3873,14 +3876,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>15</v>
+        <v>173</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3889,14 +3892,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3906,14 +3909,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3922,28 +3925,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>243</v>
+        <v>107</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>11</v>
@@ -3955,28 +3958,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>11</v>
@@ -3995,21 +3998,21 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>29</v>
+        <v>245</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>186</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>11</v>
@@ -4021,28 +4024,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>251</v>
+        <v>29</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>252</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>11</v>
@@ -4054,28 +4057,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>29</v>
+        <v>252</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>186</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>11</v>
@@ -4087,31 +4090,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>36</v>
+        <v>255</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>256</v>
+        <v>29</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4120,7 +4123,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4133,18 +4136,18 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>84</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>243</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4153,7 +4156,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4166,18 +4169,18 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4186,31 +4189,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>262</v>
+        <v>36</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>264</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>11</v>
+        <v>261</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4219,28 +4222,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>28</v>
+        <v>263</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>11</v>
@@ -4252,28 +4255,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>11</v>
@@ -4285,31 +4288,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4318,31 +4321,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4351,28 +4354,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>75</v>
+        <v>275</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>76</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>11</v>
@@ -4391,24 +4394,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>278</v>
+        <v>107</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4417,31 +4420,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>32</v>
+        <v>279</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>280</v>
+        <v>33</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>281</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4450,28 +4453,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>11</v>
@@ -4490,61 +4493,94 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>146</v>
+        <v>48</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>284</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>147</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>150</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
         <v>285</v>
       </c>
-      <c t="s" r="Q97" s="12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="98" ht="25.5" customHeight="1">
-      <c r="N98" s="13">
-        <v>5080.6949999999997</v>
-      </c>
-      <c r="O98" s="13"/>
-      <c r="P98" s="13"/>
-      <c r="Q98" s="13"/>
-    </row>
-    <row r="99" ht="16.5" customHeight="1">
-      <c t="s" r="A99" s="14">
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
         <v>286</v>
       </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c t="s" r="G99" s="15">
+      <c t="s" r="Q98" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" ht="26.25" customHeight="1">
+      <c r="N99" s="13">
+        <v>5096.6949999999997</v>
+      </c>
+      <c r="O99" s="13"/>
+      <c r="P99" s="13"/>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
         <v>287</v>
       </c>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="16"/>
-      <c t="s" r="K99" s="17">
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
         <v>288</v>
       </c>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>289</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="467">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5008,10 +5044,15 @@
     <mergeCell ref="H97:K97"/>
     <mergeCell ref="L97:M97"/>
     <mergeCell ref="N97:O97"/>
-    <mergeCell ref="N98:Q98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="K99:Q99"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="N99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
